--- a/Major Project/Acaademates Literature Survey/literature survey.xlsx
+++ b/Major Project/Acaademates Literature Survey/literature survey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Engineering\7th semester\Major Project\Acaademates Literature Survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Engineering\8th semester\Major Project\Acaademates Literature Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9721FF2A-46B6-4912-9594-AB4018742FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2CF045-F7D7-4CE9-B984-99AB1BEC68B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56C55FB6-0D96-47EB-AEED-459F8D8C933A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>Paper Name</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>S.N.</t>
+  </si>
+  <si>
+    <t>An Overview of India's Unified Payments Interface (UPI): Benefits, Challenges, and Opportunities</t>
+  </si>
+  <si>
+    <t>Chapter 18 Teacher Quality</t>
   </si>
 </sst>
 </file>
@@ -294,24 +300,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCEAD1F-90B8-4783-A7EB-C84B4AEECDFA}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,58 +660,58 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -727,58 +730,58 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -797,170 +800,190 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
